--- a/Recycling/Met_rec/metrec_Max_hist_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Max_hist_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>31910.83925839419</v>
+        <v>31910.8392583942</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>53707.83886834713</v>
+        <v>53707.83886834714</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>192438.6403801432</v>
+        <v>192438.6403801433</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>659989.6169505297</v>
+        <v>659989.6169505299</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>744340.2861112711</v>
+        <v>744340.2861112709</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>719459.3854483003</v>
+        <v>719459.3854483</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>848045.1390536643</v>
+        <v>848045.1390536642</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_hist_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Max_hist_Max.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.3128774421769158</v>
+        <v>0.3128774421769157</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3.874304769422755</v>
+        <v>3.874304769422756</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4.559299474783819</v>
+        <v>4.55929947478382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8.989580589025207</v>
+        <v>8.989580589025209</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>52.28381317233104</v>
+        <v>52.28381317233103</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>527.1991604236486</v>
+        <v>527.1991604236487</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5028,7 +5028,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>245.9158673685994</v>
+        <v>245.9158673685995</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>1027.198714748648</v>
+        <v>1027.198714748649</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5640,7 +5640,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>554.376764690017</v>
+        <v>554.3767646900171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5844,7 +5844,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>840.5392947230373</v>
+        <v>840.5392947230374</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6092,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>17785.20504724441</v>
+        <v>17785.20504724442</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5339.473780515525</v>
+        <v>5339.473780515526</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6792,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>7742.502906679197</v>
+        <v>7742.502906679195</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>42139.32794458823</v>
+        <v>42139.32794458824</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8132,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>53751.27057567817</v>
+        <v>53751.27057567816</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9108,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>133688.3190104252</v>
+        <v>133688.3190104253</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>125022.2068162653</v>
+        <v>125022.2068162652</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10944,7 +10944,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>534248.2814035288</v>
+        <v>534248.2814035286</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11236,7 +11236,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>671799.1438065929</v>
+        <v>671799.143806593</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11804,7 +11804,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>623383.6285910103</v>
+        <v>623383.6285910101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11892,7 +11892,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>501044.6833188951</v>
+        <v>501044.6833188952</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>730611.6830291259</v>
+        <v>730611.683029126</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13028,7 +13028,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>819771.6787868059</v>
+        <v>819771.6787868058</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13436,7 +13436,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>846792.685402406</v>
+        <v>846792.6854024059</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14208,7 +14208,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1277924.804039432</v>
+        <v>1277924.804039433</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1113516.536550832</v>
+        <v>1113516.536550833</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16452,7 +16452,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>997134.1307945392</v>
+        <v>997134.1307945395</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16904,7 +16904,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>554733.4204843738</v>
+        <v>554733.4204843737</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>910046.2775464553</v>
+        <v>910046.2775464552</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17196,7 +17196,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>356636.5023947874</v>
+        <v>356636.5023947873</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17312,7 +17312,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>525133.7723932458</v>
+        <v>525133.7723932459</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2411926.991305385</v>
+        <v>2411926.991305386</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17676,7 +17676,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>882429.2859257723</v>
+        <v>882429.2859257724</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18696,7 +18696,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>965642.4988962457</v>
+        <v>965642.498896246</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>567946.5844467601</v>
+        <v>567946.5844467602</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20328,7 +20328,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>873016.3586784924</v>
+        <v>873016.3586784923</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20460,7 +20460,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>515141.2741124431</v>
+        <v>515141.274112443</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20532,7 +20532,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>831131.5860400074</v>
+        <v>831131.5860400075</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20576,7 +20576,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>709000.4498705458</v>
+        <v>709000.4498705456</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>659599.7826826406</v>
+        <v>659599.7826826407</v>
       </c>
     </row>
     <row r="9" spans="1:4">
